--- a/SoftwareTesting.xlsx
+++ b/SoftwareTesting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="192">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -460,9 +460,6 @@
     <t>ADD-5</t>
   </si>
   <si>
-    <t>1) CLICK ADD BUTTON                        2) GIVE INVALID DATE                                                       3) GIVE VALID DATA TO OTHER FIELDS</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE OF BIRTH = 32-01-1998                                                       *give valid details to all other fields    </t>
   </si>
   <si>
@@ -502,15 +499,9 @@
     <t>ADD-8</t>
   </si>
   <si>
-    <t>1) CLICK ADD BUTTON                        2) LEAVE ANY FIELD EMPTY               3) CLICK SUBMIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMAIL ID = </t>
   </si>
   <si>
-    <t>*Follow Test Case ID ADD-8 For all the fields one by one by leaving one field empty ata a time. You will get the same result as above</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADD-9 </t>
   </si>
   <si>
@@ -538,9 +529,6 @@
     <t>1) CLICK EDIT BUTTON FOR ANY OF THE EMPLOYEE</t>
   </si>
   <si>
-    <t>THE FORM WITH THE DETAILS OF THAT EMPLOYEE OPENS</t>
-  </si>
-  <si>
     <t>EDIT-2</t>
   </si>
   <si>
@@ -557,9 +545,6 @@
   </si>
   <si>
     <t>1) CLICK EDIT BUTTON                        2) GIVE INVALID DETAIL IN NAME FIELD                                       3) GIVE VALID DETAILS IN ALL THE OTHER FIELDS                                                      4) CLICK SUBMIT</t>
-  </si>
-  <si>
-    <t>1) CLICK EDIT BUTTON                        2) GIVE INVALID DATE                   3) GIVE VALID DETAILS IN ALL THE OTHER FIELDS                                                       4) CLICK SUBMIT</t>
   </si>
   <si>
     <t>EDIT-5</t>
@@ -780,12 +765,75 @@
   <si>
     <t>*Follow Test Case ID  EDIT-8 For all the fields one by one by leaving one field empty ata a time. You will get the same result as above</t>
   </si>
+  <si>
+    <t>TEST CASES ON ADD/EDIT/DELETE EMPLOYEE FOR AN EMPLOYEE PORTAL</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH NULL FIELDS</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH INVALID NAME</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH INVALID DATE</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH INVALID DATE FORMAT</t>
+  </si>
+  <si>
+    <t>1) CLICK ADD BUTTON                        2) GIVE INVALID DATE                                                       3) GIVE VALID DATA TO OTHER FIELDS                                                   4)CLICK ON SUBMIT</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH INVALID AGE</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH INVALID EMAIL ID</t>
+  </si>
+  <si>
+    <t>1) CLICK ADD BUTTON                        2) LEAVE ANY ONE OR TWO FIELDS EMPTY                                       3) CLICK SUBMIT</t>
+  </si>
+  <si>
+    <t>TEST CASES FOR EDIT BUTTON</t>
+  </si>
+  <si>
+    <t>THE FORM WITH THE PREFILLED DETAILS OF THAT EMPLOYEE OPENS UP</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH NULL FIELDS</t>
+  </si>
+  <si>
+    <t>ALL THE FIELDS WILL SHOW AN ERROR AND THE DETAILS WON'T BE UPDATED</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID NAME</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID DATE FORMAT</t>
+  </si>
+  <si>
+    <t>1) CLICK EDIT BUTTON                        2) GIVE AN INVALID DATE                   3) GIVE VALID DETAILS IN ALL THE OTHER FIELDS                                                       4) CLICK SUBMIT</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS INVALID DATE</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID AGE</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID EMAIL ID</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH ONE OR TWO EMPTY FIELDS</t>
+  </si>
+  <si>
+    <t>TEST CASES FOR DELETE BUTTON</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,7 +874,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -853,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -884,7 +940,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -897,6 +952,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,10 +1298,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1261,11 +1321,11 @@
       <c r="F9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>155</v>
+      <c r="G9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1276,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>29</v>
@@ -1285,13 +1345,13 @@
         <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1299,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>31</v>
@@ -1308,13 +1368,13 @@
         <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
@@ -1322,7 +1382,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>31</v>
@@ -1331,13 +1391,13 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="14" t="s">
         <v>155</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1354,13 +1414,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>155</v>
+      <c r="G21" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1368,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>25</v>
@@ -1377,13 +1437,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1400,13 +1460,13 @@
         <v>18</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1423,13 +1483,13 @@
         <v>20</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1479,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1502,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1525,10 +1585,10 @@
         <v>42</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1548,10 +1608,10 @@
         <v>47</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1571,10 +1631,10 @@
         <v>80</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1585,7 +1645,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>53</v>
@@ -1597,10 +1657,10 @@
         <v>55</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1620,10 +1680,10 @@
         <v>59</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1643,10 +1703,10 @@
         <v>63</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1666,10 +1726,10 @@
         <v>67</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1689,10 +1749,10 @@
         <v>71</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -1712,10 +1772,10 @@
         <v>74</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1735,10 +1795,10 @@
         <v>79</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1749,16 +1809,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H78"/>
+  <dimension ref="B2:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" customWidth="1"/>
     <col min="6" max="6" width="26.77734375" customWidth="1"/>
@@ -1766,11 +1826,16 @@
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C2" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1783,41 +1848,44 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="18"/>
     </row>
     <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>155</v>
+      <c r="G9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>91</v>
+      <c r="C12" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>92</v>
@@ -1825,22 +1893,22 @@
       <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>155</v>
+      <c r="G12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>91</v>
+      <c r="C15" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>95</v>
@@ -1848,22 +1916,22 @@
       <c r="F15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>155</v>
+      <c r="G15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>91</v>
+      <c r="C18" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>98</v>
@@ -1871,115 +1939,130 @@
       <c r="F18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>91</v>
+      <c r="C21" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>155</v>
+      <c r="G21" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>155</v>
+      <c r="G24" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="F27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="D30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="F30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="F33" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G33" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1988,85 +2071,71 @@
       <c r="F36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="G36" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>155</v>
+        <v>181</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="B49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>95</v>
@@ -2074,22 +2143,22 @@
       <c r="F49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>155</v>
+      <c r="G49" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>125</v>
+      <c r="B52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>98</v>
@@ -2097,188 +2166,193 @@
       <c r="F52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>155</v>
+      <c r="G52" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>125</v>
+      <c r="B55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>155</v>
+      <c r="G55" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>125</v>
+      <c r="B58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>155</v>
+      <c r="G58" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>155</v>
+      <c r="G61" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>155</v>
+        <v>135</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>155</v>
+      <c r="B67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="C70" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>155</v>
+        <v>142</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>155</v>
+      <c r="G75" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/SoftwareTesting.xlsx
+++ b/SoftwareTesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="228">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -319,9 +319,6 @@
     <t>ADD-1</t>
   </si>
   <si>
-    <t>CLICKING ADD BUTTTON</t>
-  </si>
-  <si>
     <t>1) CLICK ADD BUTTON</t>
   </si>
   <si>
@@ -331,13 +328,7 @@
     <t>ADD-2</t>
   </si>
   <si>
-    <t>CHECKING ADD FORM VALIDATIONS</t>
-  </si>
-  <si>
     <t>EMPLOYEE NAME=                              *similarly leave all the other fields in the form as null</t>
-  </si>
-  <si>
-    <t>ALL THE FIELDS WILL SHOW AN ERROR</t>
   </si>
   <si>
     <t>ADD-3</t>
@@ -421,9 +412,6 @@
     <t>1) CLICK ADD BUTTON                     2) FILL ALL DETAILS                             3) CLICK RESET BUTTON</t>
   </si>
   <si>
-    <t>THE FORM WILL BE RESET TO ITS ORIIGNAL FORM</t>
-  </si>
-  <si>
     <t>ADD-10</t>
   </si>
   <si>
@@ -436,18 +424,12 @@
     <t>EDIT-1</t>
   </si>
   <si>
-    <t>CLICKING EDIT BUTTON</t>
-  </si>
-  <si>
     <t>1) CLICK EDIT BUTTON FOR ANY OF THE EMPLOYEE</t>
   </si>
   <si>
     <t>EDIT-2</t>
   </si>
   <si>
-    <t>CHECKING EDIT FORM VALIDATIONS</t>
-  </si>
-  <si>
     <t>1) CLICK EDIT BUTTON                     2) LEAVE ALL THE FIELDS NULL       3) CLICK SUBMIT</t>
   </si>
   <si>
@@ -493,16 +475,10 @@
     <t>EDIT-9</t>
   </si>
   <si>
-    <t>1) CLICK EDIT BUTTON                     2) FILL ALL DETAILS   CORRECTLY                                   3) CLICK SUBMIT BUTTON</t>
-  </si>
-  <si>
     <t>THE EMPLOYEE'S DETAILS WILL BE UPDATED SUCCESSFULLY AND YOU WILL BE NAVIGATED BACK TO THE EMPLOYE LIST PAGE</t>
   </si>
   <si>
     <t>DELETE-1</t>
-  </si>
-  <si>
-    <t>CHECKING FOR DELETE FUNCTIONALITY</t>
   </si>
   <si>
     <t>1) CLICK ON DELETE BUTTON OF AN EMPLOYEE</t>
@@ -676,9 +652,6 @@
     <t xml:space="preserve">EMPLOYEE WON'T BE ADDED             </t>
   </si>
   <si>
-    <t>*Follow Test Case ID  EDIT-8 For all the fields one by one by leaving one field empty ata a time. You will get the same result as above</t>
-  </si>
-  <si>
     <t>TEST CASES ON ADD/EDIT/DELETE EMPLOYEE FOR AN EMPLOYEE PORTAL</t>
   </si>
   <si>
@@ -703,9 +676,6 @@
     <t>CHECKING ADD FORM VALIDATIONS WITH INVALID EMAIL ID</t>
   </si>
   <si>
-    <t>1) CLICK ADD BUTTON                        2) LEAVE ANY ONE OR TWO FIELDS EMPTY                                       3) CLICK SUBMIT</t>
-  </si>
-  <si>
     <t>TEST CASES FOR EDIT BUTTON</t>
   </si>
   <si>
@@ -727,16 +697,10 @@
     <t>1) CLICK EDIT BUTTON                        2) GIVE AN INVALID DATE                   3) GIVE VALID DETAILS IN ALL THE OTHER FIELDS                                                       4) CLICK SUBMIT</t>
   </si>
   <si>
-    <t>CHECKING EDIT FORM VALIDATIONS INVALID DATE</t>
-  </si>
-  <si>
     <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID AGE</t>
   </si>
   <si>
     <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID EMAIL ID</t>
-  </si>
-  <si>
-    <t>CHECKING EDIT FORM VALIDATIONS WITH ONE OR TWO EMPTY FIELDS</t>
   </si>
   <si>
     <t>TEST CASES FOR DELETE BUTTON</t>
@@ -908,6 +872,87 @@
   </si>
   <si>
     <t>PASSWORD AND CONFIRM PASSWORD DOES NOT MATCH</t>
+  </si>
+  <si>
+    <t>ADD-0</t>
+  </si>
+  <si>
+    <t>CHECKING ADD BUTTTON FUNCTIONALITY</t>
+  </si>
+  <si>
+    <t>CHECKING ALL THE COMPONENTS OF ADD RECORD PAGE IS THERE OR NOT</t>
+  </si>
+  <si>
+    <t>A FORM WITH DIFFERENT FIELDS(NAME,DOB,CITY,STATE,AGE AND EMAIL ID) AND A SUBMIT BUTTON WILL OPEN</t>
+  </si>
+  <si>
+    <t>ALL THE FIELDS WILL SHOW AN ERROR AND THE EMPLOYEE WON'T BE ADDED</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH ATLEAST ONE NULL FIELD</t>
+  </si>
+  <si>
+    <t>1) CLICK ADD BUTTON                        2) LEAVE ANY ONE OR TWO OR MORE FIELDS EMPTY                                       3) CLICK SUBMIT</t>
+  </si>
+  <si>
+    <t>CHECKING RESET BUTTON FUNCTIONALITIES</t>
+  </si>
+  <si>
+    <t>THE FORM WILL BE RESET TO ITS ORIGINAL FORM</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH CORRECT DETAILS</t>
+  </si>
+  <si>
+    <t>EMPLOYEE NAME=Shivani            EMPLOYEE DOB=06-01-1998          EMPLOYEE AGE=21                            CITY=KOLKATA                                    STATE =West Bengal                           EMAIL ID =shivi@gmail.com</t>
+  </si>
+  <si>
+    <t>EDIT-0</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT BUTTON FUNCTIONALITY</t>
+  </si>
+  <si>
+    <t>CHECKING ALL THE COMPONENTS OF EDIT RECORD PAGE IS THERE OR NOT</t>
+  </si>
+  <si>
+    <t>A FORM WITH PREFILLED DETAILS OF THE EMPLOYEE AND HAVING DIFFERENT FIELDS(NAME,DOB,CITY,STATE,AGE AND EMAIL ID) AND A SUBMIT BUTTON WILL OPEN</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH ATLEAST ONE EMPTY FIELD</t>
+  </si>
+  <si>
+    <t>*Follow Test Case ID  EDIT-8 For all the fields one by one by leaving atleast one field empty ata a time. You will get the same result as above</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH VALID DETAILS</t>
+  </si>
+  <si>
+    <t>1) CLICK EDIT BUTTON                     2) MAKE ALL THE CHANGES   CORRECTLY                                   3) CLICK SUBMIT BUTTON</t>
+  </si>
+  <si>
+    <t>CHECKING DELETE BUTTON FUNCTIONALITY</t>
+  </si>
+  <si>
+    <t>DELETE-0</t>
+  </si>
+  <si>
+    <t>CHECKING THE COMPONENTS OF THE CONFIRMATION BOX</t>
+  </si>
+  <si>
+    <t>1) CLICK ON DELETE BUTTTON OF THE EMPLOYEE</t>
+  </si>
+  <si>
+    <t>THE CONFIRMATION BOX WILL CONTAIN A MESSAGE FOR CONFIRMATION, AN OK BUTTON AND A CANCEL BUTTON</t>
+  </si>
+  <si>
+    <t>CHECKING FOR CANCEL BUTTON FUNCTIONALITY</t>
+  </si>
+  <si>
+    <t>CHECKING FOR OK BUTTON FUNCTIONALITY</t>
+  </si>
+  <si>
+    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID DATE</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1030,9 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1376,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1400,10 +1442,10 @@
         <v>7</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1414,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>29</v>
@@ -1423,13 +1465,13 @@
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1437,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>31</v>
@@ -1446,13 +1488,13 @@
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
@@ -1460,7 +1502,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>31</v>
@@ -1469,13 +1511,13 @@
         <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1492,13 +1534,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1506,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
@@ -1515,13 +1557,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1538,13 +1580,13 @@
         <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1561,13 +1603,13 @@
         <v>20</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1596,14 +1638,14 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -1616,50 +1658,50 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1667,7 +1709,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -1676,13 +1718,13 @@
         <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1690,7 +1732,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>36</v>
@@ -1702,10 +1744,10 @@
         <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1713,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -1722,13 +1764,13 @@
         <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1736,7 +1778,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>43</v>
@@ -1748,18 +1790,18 @@
         <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>43</v>
@@ -1768,13 +1810,13 @@
         <v>44</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1785,10 +1827,10 @@
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
@@ -1797,10 +1839,10 @@
         <v>47</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1811,7 +1853,7 @@
         <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>49</v>
@@ -1820,10 +1862,10 @@
         <v>50</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1834,42 +1876,42 @@
         <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -1880,19 +1922,19 @@
         <v>63</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1900,22 +1942,22 @@
         <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -1923,22 +1965,22 @@
         <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="72" x14ac:dyDescent="0.3">
@@ -1949,42 +1991,42 @@
         <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1995,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H78"/>
+  <dimension ref="B1:H80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,533 +2054,599 @@
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C2" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="1" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="C1" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>131</v>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="16"/>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>129</v>
+      <c r="F8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="G36" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>129</v>
+        <v>215</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>116</v>
+        <v>219</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="F80" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>129</v>
+      <c r="G80" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/SoftwareTesting.xlsx
+++ b/SoftwareTesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="265">
   <si>
     <t>TEST CASE ID</t>
   </si>
@@ -243,9 +243,6 @@
     <t>ADD-1</t>
   </si>
   <si>
-    <t>1) CLICK ADD BUTTON</t>
-  </si>
-  <si>
     <t>A FORM WITH ALL THE FILELDS OPENS UP</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>ADD-8</t>
   </si>
   <si>
-    <t xml:space="preserve">EMAIL ID = </t>
-  </si>
-  <si>
     <t>1) CLICK ADD BUTTON                     2) FILL ALL DETAILS                             3) CLICK RESET BUTTON</t>
   </si>
   <si>
@@ -354,21 +348,12 @@
     <t>EDIT-4</t>
   </si>
   <si>
-    <t>1) CLICK EDIT BUTTON                        2) GIVE INVALID DETAIL IN NAME FIELD                                       3) GIVE VALID DETAILS IN ALL THE OTHER FIELDS                                                      4) CLICK SUBMIT</t>
-  </si>
-  <si>
     <t>EDIT-5</t>
   </si>
   <si>
-    <t>1) CLICK EDIT BUTTON                        2) GIVE INVALID DATE                                                       3) GIVE VALID DATA TO OTHER FIELDS                                                      4)CLICK ON SUBMIT</t>
-  </si>
-  <si>
     <t>EDIT-6</t>
   </si>
   <si>
-    <t>1) CLICK EDIT BUTTON                     2) GIVE INVALID AGE                                                           3)GIVE VALID DATA TO OTHER FIELDS                                                     4) CLICK ON SUBMIT</t>
-  </si>
-  <si>
     <t>EDIT-7</t>
   </si>
   <si>
@@ -376,9 +361,6 @@
   </si>
   <si>
     <t>EDIT-8</t>
-  </si>
-  <si>
-    <t>1) CLICK EDIT BUTTON                        2) LEAVE ANY FIELD EMPTY               3) CLICK SUBMIT</t>
   </si>
   <si>
     <t>EMAIL ID =                                                        *give all other fields valid data</t>
@@ -543,24 +525,6 @@
     <t>CHANGING PASSWORD VIA BLANK OTP</t>
   </si>
   <si>
-    <t>1) CLICK ADD BUTTON                  2) LEAVE ALL THE FIELDS NULL                                                     3)CLICK ON SUBMIT</t>
-  </si>
-  <si>
-    <t>1) CLICK ADD BUTTON                        2) GIVE INVALID DETAIL IN NAME FIELD                                       3) GIVE VALID DETAILS IN ALL THE OTHER FIELDS                                                     4)CLICK ON SUBMIT</t>
-  </si>
-  <si>
-    <t>1) CLICK ADD BUTTON                        2) GIVE INVALID DATE                   3) GIVE VALID DETAILS IN ALL THE OTHER FIELDS                                                  4) CLICK ON SUBMIT</t>
-  </si>
-  <si>
-    <t>1) CLICK ADD BUTTON                     2) GIVE INVALID AGE                                                           3)GIVE VALID DATA TO OTHER FIELDS                                                        4) CLICK ON SUBMIT</t>
-  </si>
-  <si>
-    <t>1)CLICK ADD BUTTON                       2) GIVE INVALID EMAIL ID                 3) GIVE VALID DETAILS TO OTHER FIELDS                                                            4)CLICK ON SUBMIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPLOYEE WON'T BE ADDED             </t>
-  </si>
-  <si>
     <t>TEST CASES ON ADD/EDIT/DELETE EMPLOYEE FOR AN EMPLOYEE PORTAL</t>
   </si>
   <si>
@@ -576,40 +540,16 @@
     <t>CHECKING ADD FORM VALIDATIONS WITH INVALID DATE FORMAT</t>
   </si>
   <si>
-    <t>1) CLICK ADD BUTTON                        2) GIVE INVALID DATE                                                       3) GIVE VALID DATA TO OTHER FIELDS                                                   4)CLICK ON SUBMIT</t>
-  </si>
-  <si>
     <t>CHECKING ADD FORM VALIDATIONS WITH INVALID AGE</t>
   </si>
   <si>
     <t>CHECKING ADD FORM VALIDATIONS WITH INVALID EMAIL ID</t>
   </si>
   <si>
-    <t>TEST CASES FOR EDIT BUTTON</t>
-  </si>
-  <si>
     <t>CHECKING EDIT FORM VALIDATIONS WITH NULL FIELDS</t>
   </si>
   <si>
     <t>ALL THE FIELDS WILL SHOW AN ERROR AND THE DETAILS WON'T BE UPDATED</t>
-  </si>
-  <si>
-    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID NAME</t>
-  </si>
-  <si>
-    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID DATE FORMAT</t>
-  </si>
-  <si>
-    <t>1) CLICK EDIT BUTTON                        2) GIVE AN INVALID DATE                   3) GIVE VALID DETAILS IN ALL THE OTHER FIELDS                                                       4) CLICK SUBMIT</t>
-  </si>
-  <si>
-    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID AGE</t>
-  </si>
-  <si>
-    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID EMAIL ID</t>
-  </si>
-  <si>
-    <t>TEST CASES FOR DELETE BUTTON</t>
   </si>
   <si>
     <t>ASSIGNMENT 2</t>
@@ -774,27 +714,15 @@
     <t>CHECKING ALL THE COMPONENTS OF ADD RECORD PAGE IS THERE OR NOT</t>
   </si>
   <si>
-    <t>A FORM WITH DIFFERENT FIELDS(NAME,DOB,CITY,STATE,AGE AND EMAIL ID) AND A SUBMIT BUTTON WILL OPEN</t>
-  </si>
-  <si>
     <t>ALL THE FIELDS WILL SHOW AN ERROR AND THE EMPLOYEE WON'T BE ADDED</t>
   </si>
   <si>
     <t>CHECKING ADD FORM VALIDATIONS WITH ATLEAST ONE NULL FIELD</t>
   </si>
   <si>
-    <t>1) CLICK ADD BUTTON                        2) LEAVE ANY ONE OR TWO OR MORE FIELDS EMPTY                                       3) CLICK SUBMIT</t>
-  </si>
-  <si>
     <t>CHECKING RESET BUTTON FUNCTIONALITIES</t>
   </si>
   <si>
-    <t>THE FORM WILL BE RESET TO ITS ORIGINAL FORM</t>
-  </si>
-  <si>
-    <t>CHECKING ADD FORM VALIDATIONS WITH CORRECT DETAILS</t>
-  </si>
-  <si>
     <t>EDIT-0</t>
   </si>
   <si>
@@ -804,15 +732,9 @@
     <t>CHECKING ALL THE COMPONENTS OF EDIT RECORD PAGE IS THERE OR NOT</t>
   </si>
   <si>
-    <t>A FORM WITH PREFILLED DETAILS OF THE EMPLOYEE AND HAVING DIFFERENT FIELDS(NAME,DOB,CITY,STATE,AGE AND EMAIL ID) AND A SUBMIT BUTTON WILL OPEN</t>
-  </si>
-  <si>
     <t>CHECKING EDIT FORM VALIDATIONS WITH ATLEAST ONE EMPTY FIELD</t>
   </si>
   <si>
-    <t>*Follow Test Case ID  EDIT-8 For all the fields one by one by leaving atleast one field empty ata a time. You will get the same result as above</t>
-  </si>
-  <si>
     <t>CHECKING EDIT FORM VALIDATIONS WITH VALID DETAILS</t>
   </si>
   <si>
@@ -840,15 +762,6 @@
     <t>CHECKING FOR OK BUTTON FUNCTIONALITY</t>
   </si>
   <si>
-    <t>CHECKING EDIT FORM VALIDATIONS WITH INVALID DATE</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>CHECKING THE EMPLOYEE LIST PAGE COMPONENTS</t>
-  </si>
-  <si>
     <t>1) LAUNCH THE APPLICATION</t>
   </si>
   <si>
@@ -858,16 +771,10 @@
     <t>1) CLICK ADD BUTTON                     2) CLICK THE STATE DROPDOWN AND SELECT A VALUE AND THEN CLICK THE CITY DROPDOWN</t>
   </si>
   <si>
-    <t>THE DROPDOWN LIST SHOULD CONTAIN ALL THE VALID  STATES AND ON SELECTING A STATE, THE CITY DROPDOWN SHOULD HAVE ALL THE CITIES FOR THAT PARTICULAR STATE</t>
-  </si>
-  <si>
     <t>ADD-9</t>
   </si>
   <si>
     <t>CHECK THE DROPDOWN FOR DEPARTMENT NAME</t>
-  </si>
-  <si>
-    <t>1) CLICK ADD BUTTON                     2) CHECK THE DROPDOWN VALUES FOR DEPARTMENT NAME</t>
   </si>
   <si>
     <t>THE DROPDOWN SHOULD CONTAIN VALUES HR,IT,ACCOUNTS AND SALES</t>
@@ -986,6 +893,201 @@
   </si>
   <si>
     <t>1) ENTER A PASSWORD                                                            2) ENTER A DIFFERENT CONFIRM PASSWORD                                         3) CLICK ON CHANGE PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECKING THE EMPLOYEE LIST PAGE COMPONENTS </t>
+  </si>
+  <si>
+    <t>1) CLICK ADD NEW RECORD BUTTON</t>
+  </si>
+  <si>
+    <t>A FORM WITH DIFFERENT FIELDS(NAME,DOB,CITY,STATE,AGE, EMAIL ID AND DEPARTMENT NAME) AND A SUBMIT BUTTON WILL OPEN</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH VALID NAME</t>
+  </si>
+  <si>
+    <t>EMPLOYEE NAME = Aksh</t>
+  </si>
+  <si>
+    <t>NO ERROR(continue with other fields)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLOYEE NAME = Aksh1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE OF BIRTH = 12011998       </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DATE FIELD WILL SHOW AN ERROR IN RED                          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*invalid date format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DATE FIELD WILL SHOW ERROR IN RED                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* invalid date</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE OF BIRTH = 32-01-1998                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECKING ADD FORM VALIDATIONS WITH VALID DATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE OF BIRTH = 12-01-1998       </t>
+  </si>
+  <si>
+    <t>THE STATE DROPDOWN LIST SHOULD CONTAIN ALL THE VALID  STATES AND ON SELECTING A STATE, THE CITY DROPDOWN SHOULD HAVE ALL THE CITIES FOR THAT SELECTED STATE</t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH VALID AGE</t>
+  </si>
+  <si>
+    <t>AGE=22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGE = TY                                              </t>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH VALID EMAIL ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL ID = jha68974@gmail.com       </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMAIL ID FIELD WILL SHOW ERROR IN RED                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Invalid email id</t>
+    </r>
+  </si>
+  <si>
+    <t>CHECKING ADD FORM VALIDATIONS WITH ALL THE CORRECT DETAILS FILLED IN</t>
+  </si>
+  <si>
+    <t>THE FORM WILL BE RESET TO ITS ORIGINAL FORM                                                         * all the fields will be empty again</t>
+  </si>
+  <si>
+    <t>ADD-13</t>
+  </si>
+  <si>
+    <t>ADD-14</t>
+  </si>
+  <si>
+    <t>ADD-15</t>
+  </si>
+  <si>
+    <t>ADD-16</t>
+  </si>
+  <si>
+    <t>ADD-17</t>
+  </si>
+  <si>
+    <t>EMPLOYEE WON'T BE ADDED             *the empty fields will show an error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL ID =                                                           AGE=                                                       </t>
+  </si>
+  <si>
+    <t>1) CLICK ADD BUTTON                        2) LEAVE ANY ONE OR MORE FIELDS EMPTY  (atleast one field should be filled)                                     3) CLICK SUBMIT</t>
+  </si>
+  <si>
+    <t>A FORM WITH PREFILLED DETAILS OF THE EMPLOYEE AND HAVING DIFFERENT FIELDS(NAME,DOB,CITY,STATE,AGE, EMAIL ID AND DEPARTMENT NAME) AND A SUBMIT BUTTON WILL OPEN</t>
+  </si>
+  <si>
+    <t>EMPLOYEE NAME=                              *similarly make all the other fields in the form as null</t>
+  </si>
+  <si>
+    <t>1) CLICK EDIT BUTTON                        2) GIVE INVALID DETAIL IN NAME FIELD                                       4) CLICK SUBMIT</t>
+  </si>
+  <si>
+    <t>CHANGING NAME FIELD TO AN INVALID NAME</t>
+  </si>
+  <si>
+    <t>CHANGING DATE FIELD WITH INVALID DATE FORMAT</t>
+  </si>
+  <si>
+    <t>1) CLICK EDIT BUTTON                        2) GIVE AN INVALID DATE   FORMAT                                        4) CLICK SUBMIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGING DATE FIELD WITH INVALID DATE </t>
+  </si>
+  <si>
+    <t>1) CLICK EDIT BUTTON                        2) GIVE INVALID DATE                                                                              4)CLICK ON SUBMIT</t>
+  </si>
+  <si>
+    <t>CHANGING AGE FIELD TO AN INVALID AGE</t>
+  </si>
+  <si>
+    <t>1) CLICK EDIT BUTTON                     2) GIVE INVALID AGE                                                                                                           4) CLICK ON SUBMIT</t>
+  </si>
+  <si>
+    <t>CHANGING EMAIL ID FIELD TO AN INVALID EMAIL ID</t>
+  </si>
+  <si>
+    <t>1) LEAVE ALL THE FIELDS NULL                                                     3)CLICK ON SUBMIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) GIVE VALID DETAIL IN NAME FIELD (having only alphabets)                 3) GOTO NEXT FIELD                   </t>
+  </si>
+  <si>
+    <t>1) GIVE INVALID DATA IN NAME FIELD                                  3) GOTO NEXT FIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) FILL UP THE PREVIOUS FIELD CORRECTLY                                            2) GIVE VALID DATE                   3) GO TO NEXT FIELD                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) FILL UP THE PREVIOUS FIELDS CORRECTLY                        2) GIVE INVALID DATE                   3) GO TO NEXT FIELD                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)FILL UP THE PREVIOUS FIELDS CORRECTLY                        2) GIVE INVALID DATE                                                       3) GOTO NEXT FIELD                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) FILL UP THE PREVIOUS FIELDS CORRECTLY                      2) GIVE VALID AGE (in numbers)                                                          3)GOTO NEXT FIELD                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) FILL UP THE PREVIOUS FIELDS CORRECTLY                       2) GIVEIN VALID AGE                                                           3)GOTO NEXT FIELD                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)FILL UP THE PREVIOUS FIELDS CORRECTLY                      2) GIVE VALID EMAIL ID                 3) GOTO NEXT FIELD                                                  </t>
+  </si>
+  <si>
+    <t>1)FILL UP THE PREVIOUS FIELDS CORRECTLY                        2) GIVE INVALID EMAIL ID                 3) GOTO NEXT FIELD</t>
+  </si>
+  <si>
+    <t>1) CHECK THE DROPDOWN VALUES FOR DEPARTMENT NAME</t>
+  </si>
+  <si>
+    <t>1) CLICK EDIT BUTTON                        2) LEAVE ANY ONE OR MORE FIELDS EMPTY  (atleast one field should be filled)                                     3) CLICK SUBMIT</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1110,6 +1212,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,10 +1556,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1475,10 +1580,10 @@
         <v>7</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1489,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>29</v>
@@ -1498,13 +1603,13 @@
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1512,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>31</v>
@@ -1521,13 +1626,13 @@
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
@@ -1535,7 +1640,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>31</v>
@@ -1544,13 +1649,13 @@
         <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1567,13 +1672,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1581,7 +1686,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
@@ -1590,13 +1695,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1613,13 +1718,13 @@
         <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1636,13 +1741,13 @@
         <v>20</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1671,7 +1776,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
@@ -1691,50 +1796,50 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1742,7 +1847,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>32</v>
@@ -1751,13 +1856,13 @@
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1765,7 +1870,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
@@ -1777,10 +1882,10 @@
         <v>37</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1788,7 +1893,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -1797,44 +1902,44 @@
         <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>42</v>
@@ -1843,13 +1948,13 @@
         <v>43</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1857,13 +1962,13 @@
     </row>
     <row r="20" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>44</v>
@@ -1872,194 +1977,194 @@
         <v>45</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2070,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H80"/>
+  <dimension ref="B1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2089,7 +2194,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="C1" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.35">
@@ -2109,637 +2214,717 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>207</v>
+        <v>159</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>105</v>
+      <c r="C22" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
-        <v>77</v>
+        <v>231</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>235</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>215</v>
+        <v>183</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="E33" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>105</v>
+      <c r="G44" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
+      <c r="C48" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C51" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
+      <c r="C57" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B58" s="5" t="s">
+      <c r="E60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="G63" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="13" t="s">
+      <c r="C69" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B67" s="5" t="s">
+      <c r="G72" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="C70" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="C74" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B75" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B78" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>105</v>
+      <c r="G74" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
